--- a/biology/Zoologie/Akalat_à_gorge_tachetée/Akalat_à_gorge_tachetée.xlsx
+++ b/biology/Zoologie/Akalat_à_gorge_tachetée/Akalat_à_gorge_tachetée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Akalat_%C3%A0_gorge_tachet%C3%A9e</t>
+          <t>Akalat_à_gorge_tachetée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pellorneum albiventre
 L’Akalat à gorge tachetée (Pellorneum albiventre) est une espèce de passereau de la famille des Pellorneidae. Elle a auparavant été classée dans les familles des Sylviidae et des Timaliidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Akalat_%C3%A0_gorge_tachet%C3%A9e</t>
+          <t>Akalat_à_gorge_tachetée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">On le trouve au Bangladesh, Bhoutan, Birmanie, Cambodge, Chine, Inde, Laos, Thaïlande, et Vietnam.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Akalat_%C3%A0_gorge_tachet%C3%A9e</t>
+          <t>Akalat_à_gorge_tachetée</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il habite les forêts humides tropicales et subtropicales.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Akalat_%C3%A0_gorge_tachet%C3%A9e</t>
+          <t>Akalat_à_gorge_tachetée</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Selon A. Peterson:
 Pellorneum albiventre albiventre (Godwin-Austen) 1877
